--- a/Upload/Internship_bps_brs.xlsx
+++ b/Upload/Internship_bps_brs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BTECH_CSEcore\Projects\pj2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A7BF72-FD89-428F-B568-C32CB12A76C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C1648A-00E4-4938-B8CB-8C14AE8898D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="479">
   <si>
     <t>Project Name</t>
   </si>
@@ -1472,18 +1472,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1500,7 +1494,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1840,18 +1834,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B460"/>
+  <dimension ref="A1:B458"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A433" zoomScale="86" workbookViewId="0">
-      <selection activeCell="C450" sqref="C450"/>
+    <sheetView tabSelected="1" topLeftCell="A298" zoomScale="86" workbookViewId="0">
+      <selection activeCell="L308" sqref="L308"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1859,7 +1853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1867,7 +1861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1875,7 +1869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1883,7 +1877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1891,7 +1885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1899,7 +1893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1907,7 +1901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1915,7 +1909,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1923,7 +1917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1931,7 +1925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1939,7 +1933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1947,7 +1941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1955,7 +1949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1963,7 +1957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1971,7 +1965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1979,7 +1973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1987,7 +1981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1995,7 +1989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -2003,7 +1997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -2011,7 +2005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -2019,7 +2013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -2027,7 +2021,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -2035,7 +2029,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -2043,7 +2037,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -2051,7 +2045,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -2059,7 +2053,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -2067,7 +2061,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -2075,7 +2069,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -2083,7 +2077,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -2091,7 +2085,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -2099,7 +2093,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -2107,7 +2101,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -2115,7 +2109,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -2123,7 +2117,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -2131,7 +2125,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -2139,7 +2133,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -2147,7 +2141,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -2155,7 +2149,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -2163,7 +2157,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -2171,7 +2165,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -2179,7 +2173,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -2187,7 +2181,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -2195,7 +2189,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -2203,7 +2197,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -2211,7 +2205,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -2219,7 +2213,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -2227,7 +2221,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -2235,7 +2229,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -2243,7 +2237,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -2251,7 +2245,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -2259,7 +2253,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -2267,7 +2261,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -2275,7 +2269,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -2283,7 +2277,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -2291,7 +2285,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -2299,7 +2293,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -2307,7 +2301,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>61</v>
       </c>
@@ -2315,7 +2309,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>62</v>
       </c>
@@ -2323,7 +2317,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>63</v>
       </c>
@@ -2331,7 +2325,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>64</v>
       </c>
@@ -2339,7 +2333,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -2347,7 +2341,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -2355,7 +2349,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>68</v>
       </c>
@@ -2363,7 +2357,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -2371,7 +2365,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -2379,7 +2373,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -2387,7 +2381,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -2395,7 +2389,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>73</v>
       </c>
@@ -2403,7 +2397,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -2411,7 +2405,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -2419,7 +2413,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>76</v>
       </c>
@@ -2427,7 +2421,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -2435,7 +2429,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>78</v>
       </c>
@@ -2443,7 +2437,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -2451,7 +2445,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>80</v>
       </c>
@@ -2459,7 +2453,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>81</v>
       </c>
@@ -2467,7 +2461,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -2475,7 +2469,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>83</v>
       </c>
@@ -2483,7 +2477,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>84</v>
       </c>
@@ -2491,7 +2485,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>85</v>
       </c>
@@ -2499,7 +2493,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>86</v>
       </c>
@@ -2507,7 +2501,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>88</v>
       </c>
@@ -2515,7 +2509,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>89</v>
       </c>
@@ -2523,7 +2517,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>89</v>
       </c>
@@ -2531,7 +2525,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>90</v>
       </c>
@@ -2539,7 +2533,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>91</v>
       </c>
@@ -2547,7 +2541,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>92</v>
       </c>
@@ -2555,7 +2549,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>93</v>
       </c>
@@ -2563,7 +2557,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>94</v>
       </c>
@@ -2571,7 +2565,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>95</v>
       </c>
@@ -2579,7 +2573,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>96</v>
       </c>
@@ -2587,7 +2581,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>97</v>
       </c>
@@ -2595,7 +2589,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>98</v>
       </c>
@@ -2603,7 +2597,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>99</v>
       </c>
@@ -2611,7 +2605,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>100</v>
       </c>
@@ -2619,7 +2613,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>101</v>
       </c>
@@ -2627,7 +2621,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>102</v>
       </c>
@@ -2635,7 +2629,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>103</v>
       </c>
@@ -2643,7 +2637,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>104</v>
       </c>
@@ -2651,7 +2645,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>105</v>
       </c>
@@ -2659,7 +2653,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>106</v>
       </c>
@@ -2667,7 +2661,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>108</v>
       </c>
@@ -2675,7 +2669,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>109</v>
       </c>
@@ -2683,7 +2677,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>110</v>
       </c>
@@ -2691,7 +2685,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>111</v>
       </c>
@@ -2699,7 +2693,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>112</v>
       </c>
@@ -2707,7 +2701,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>113</v>
       </c>
@@ -2715,7 +2709,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>114</v>
       </c>
@@ -2723,7 +2717,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>115</v>
       </c>
@@ -2731,7 +2725,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>116</v>
       </c>
@@ -2739,7 +2733,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>117</v>
       </c>
@@ -2747,7 +2741,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>118</v>
       </c>
@@ -2755,7 +2749,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>119</v>
       </c>
@@ -2763,7 +2757,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>120</v>
       </c>
@@ -2771,7 +2765,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>121</v>
       </c>
@@ -2779,7 +2773,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>122</v>
       </c>
@@ -2787,7 +2781,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>123</v>
       </c>
@@ -2795,7 +2789,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>124</v>
       </c>
@@ -2803,7 +2797,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>125</v>
       </c>
@@ -2811,7 +2805,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>126</v>
       </c>
@@ -2819,7 +2813,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>127</v>
       </c>
@@ -2827,7 +2821,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>129</v>
       </c>
@@ -2835,7 +2829,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>130</v>
       </c>
@@ -2843,7 +2837,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>131</v>
       </c>
@@ -2851,7 +2845,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>132</v>
       </c>
@@ -2859,7 +2853,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>133</v>
       </c>
@@ -2867,7 +2861,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>134</v>
       </c>
@@ -2875,7 +2869,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>135</v>
       </c>
@@ -2883,7 +2877,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>136</v>
       </c>
@@ -2891,7 +2885,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>137</v>
       </c>
@@ -2899,7 +2893,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>138</v>
       </c>
@@ -2907,7 +2901,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>139</v>
       </c>
@@ -2915,7 +2909,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>140</v>
       </c>
@@ -2923,7 +2917,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>141</v>
       </c>
@@ -2931,7 +2925,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>142</v>
       </c>
@@ -2939,7 +2933,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>143</v>
       </c>
@@ -2947,7 +2941,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>144</v>
       </c>
@@ -2955,7 +2949,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>145</v>
       </c>
@@ -2963,7 +2957,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>146</v>
       </c>
@@ -2971,7 +2965,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>147</v>
       </c>
@@ -2979,7 +2973,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>148</v>
       </c>
@@ -2987,7 +2981,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>150</v>
       </c>
@@ -2995,7 +2989,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>151</v>
       </c>
@@ -3003,7 +2997,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>152</v>
       </c>
@@ -3011,7 +3005,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>153</v>
       </c>
@@ -3019,7 +3013,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>154</v>
       </c>
@@ -3027,7 +3021,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>155</v>
       </c>
@@ -3035,7 +3029,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>156</v>
       </c>
@@ -3043,7 +3037,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>157</v>
       </c>
@@ -3051,7 +3045,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>158</v>
       </c>
@@ -3059,7 +3053,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>159</v>
       </c>
@@ -3067,7 +3061,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>160</v>
       </c>
@@ -3075,7 +3069,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>161</v>
       </c>
@@ -3083,7 +3077,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>162</v>
       </c>
@@ -3091,7 +3085,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>163</v>
       </c>
@@ -3099,7 +3093,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>164</v>
       </c>
@@ -3107,7 +3101,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>165</v>
       </c>
@@ -3115,7 +3109,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>166</v>
       </c>
@@ -3123,7 +3117,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>167</v>
       </c>
@@ -3131,7 +3125,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>169</v>
       </c>
@@ -3139,7 +3133,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>170</v>
       </c>
@@ -3147,7 +3141,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>171</v>
       </c>
@@ -3155,7 +3149,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>172</v>
       </c>
@@ -3163,7 +3157,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>173</v>
       </c>
@@ -3171,7 +3165,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>174</v>
       </c>
@@ -3179,7 +3173,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>175</v>
       </c>
@@ -3187,7 +3181,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>176</v>
       </c>
@@ -3195,7 +3189,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>177</v>
       </c>
@@ -3203,7 +3197,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>178</v>
       </c>
@@ -3211,7 +3205,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>179</v>
       </c>
@@ -3219,7 +3213,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>180</v>
       </c>
@@ -3227,7 +3221,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>181</v>
       </c>
@@ -3235,7 +3229,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>182</v>
       </c>
@@ -3243,7 +3237,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>183</v>
       </c>
@@ -3251,7 +3245,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>184</v>
       </c>
@@ -3259,7 +3253,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>185</v>
       </c>
@@ -3267,7 +3261,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>186</v>
       </c>
@@ -3275,7 +3269,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>187</v>
       </c>
@@ -3283,7 +3277,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>188</v>
       </c>
@@ -3291,7 +3285,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>190</v>
       </c>
@@ -3299,7 +3293,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>191</v>
       </c>
@@ -3307,7 +3301,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>192</v>
       </c>
@@ -3315,7 +3309,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>193</v>
       </c>
@@ -3323,7 +3317,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>194</v>
       </c>
@@ -3331,7 +3325,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>195</v>
       </c>
@@ -3339,7 +3333,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>196</v>
       </c>
@@ -3347,7 +3341,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>197</v>
       </c>
@@ -3355,7 +3349,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>198</v>
       </c>
@@ -3363,7 +3357,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>199</v>
       </c>
@@ -3371,7 +3365,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>200</v>
       </c>
@@ -3379,7 +3373,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>201</v>
       </c>
@@ -3387,7 +3381,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>202</v>
       </c>
@@ -3395,7 +3389,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>203</v>
       </c>
@@ -3403,7 +3397,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>204</v>
       </c>
@@ -3411,7 +3405,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>205</v>
       </c>
@@ -3419,7 +3413,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>206</v>
       </c>
@@ -3427,7 +3421,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>207</v>
       </c>
@@ -3435,7 +3429,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>208</v>
       </c>
@@ -3443,7 +3437,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>209</v>
       </c>
@@ -3451,7 +3445,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>211</v>
       </c>
@@ -3459,7 +3453,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>212</v>
       </c>
@@ -3467,7 +3461,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>213</v>
       </c>
@@ -3475,7 +3469,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>214</v>
       </c>
@@ -3483,7 +3477,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>215</v>
       </c>
@@ -3491,7 +3485,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>216</v>
       </c>
@@ -3499,7 +3493,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>217</v>
       </c>
@@ -3507,7 +3501,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>218</v>
       </c>
@@ -3515,7 +3509,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>219</v>
       </c>
@@ -3523,7 +3517,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>220</v>
       </c>
@@ -3531,7 +3525,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>221</v>
       </c>
@@ -3539,7 +3533,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>222</v>
       </c>
@@ -3547,7 +3541,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>223</v>
       </c>
@@ -3555,7 +3549,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>224</v>
       </c>
@@ -3563,7 +3557,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>225</v>
       </c>
@@ -3571,7 +3565,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>226</v>
       </c>
@@ -3579,7 +3573,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>227</v>
       </c>
@@ -3587,7 +3581,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>228</v>
       </c>
@@ -3595,7 +3589,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>229</v>
       </c>
@@ -3603,7 +3597,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>230</v>
       </c>
@@ -3611,7 +3605,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>232</v>
       </c>
@@ -3619,7 +3613,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>233</v>
       </c>
@@ -3627,7 +3621,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>234</v>
       </c>
@@ -3635,7 +3629,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>235</v>
       </c>
@@ -3643,7 +3637,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>236</v>
       </c>
@@ -3651,7 +3645,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>237</v>
       </c>
@@ -3659,7 +3653,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>238</v>
       </c>
@@ -3667,7 +3661,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>239</v>
       </c>
@@ -3675,7 +3669,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>240</v>
       </c>
@@ -3683,7 +3677,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="230" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>241</v>
       </c>
@@ -3691,7 +3685,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>242</v>
       </c>
@@ -3699,7 +3693,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="232" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>243</v>
       </c>
@@ -3707,7 +3701,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>244</v>
       </c>
@@ -3715,7 +3709,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>245</v>
       </c>
@@ -3723,7 +3717,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>246</v>
       </c>
@@ -3731,7 +3725,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>247</v>
       </c>
@@ -3739,7 +3733,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>248</v>
       </c>
@@ -3747,7 +3741,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>249</v>
       </c>
@@ -3755,7 +3749,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>250</v>
       </c>
@@ -3763,7 +3757,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>251</v>
       </c>
@@ -3771,7 +3765,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>253</v>
       </c>
@@ -3779,7 +3773,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>254</v>
       </c>
@@ -3787,7 +3781,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>255</v>
       </c>
@@ -3795,7 +3789,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>256</v>
       </c>
@@ -3803,7 +3797,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="245" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>257</v>
       </c>
@@ -3811,7 +3805,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="246" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>258</v>
       </c>
@@ -3819,7 +3813,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>259</v>
       </c>
@@ -3827,7 +3821,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="248" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>260</v>
       </c>
@@ -3835,7 +3829,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>261</v>
       </c>
@@ -3843,7 +3837,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>262</v>
       </c>
@@ -3851,7 +3845,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="251" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>263</v>
       </c>
@@ -3859,7 +3853,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="252" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>264</v>
       </c>
@@ -3867,7 +3861,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="253" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>265</v>
       </c>
@@ -3875,7 +3869,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>266</v>
       </c>
@@ -3883,7 +3877,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>267</v>
       </c>
@@ -3891,7 +3885,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>267</v>
       </c>
@@ -3899,7 +3893,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>268</v>
       </c>
@@ -3907,7 +3901,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>269</v>
       </c>
@@ -3915,7 +3909,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>270</v>
       </c>
@@ -3923,7 +3917,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>271</v>
       </c>
@@ -3931,7 +3925,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>273</v>
       </c>
@@ -3939,7 +3933,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>274</v>
       </c>
@@ -3947,7 +3941,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="263" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>275</v>
       </c>
@@ -3955,7 +3949,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="264" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>276</v>
       </c>
@@ -3963,7 +3957,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>277</v>
       </c>
@@ -3971,7 +3965,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="266" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>278</v>
       </c>
@@ -3979,7 +3973,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>279</v>
       </c>
@@ -3987,7 +3981,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>280</v>
       </c>
@@ -3995,7 +3989,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="269" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>281</v>
       </c>
@@ -4003,7 +3997,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="270" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>282</v>
       </c>
@@ -4011,7 +4005,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="271" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>283</v>
       </c>
@@ -4019,7 +4013,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>284</v>
       </c>
@@ -4027,7 +4021,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>285</v>
       </c>
@@ -4035,7 +4029,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>286</v>
       </c>
@@ -4043,7 +4037,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="275" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>287</v>
       </c>
@@ -4051,7 +4045,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>288</v>
       </c>
@@ -4059,7 +4053,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>289</v>
       </c>
@@ -4067,7 +4061,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>290</v>
       </c>
@@ -4075,7 +4069,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>291</v>
       </c>
@@ -4083,7 +4077,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="280" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>292</v>
       </c>
@@ -4091,7 +4085,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="281" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>294</v>
       </c>
@@ -4099,7 +4093,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="282" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>295</v>
       </c>
@@ -4107,7 +4101,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="283" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>296</v>
       </c>
@@ -4115,7 +4109,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="284" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>297</v>
       </c>
@@ -4123,7 +4117,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>298</v>
       </c>
@@ -4131,7 +4125,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="286" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>299</v>
       </c>
@@ -4139,7 +4133,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="287" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>300</v>
       </c>
@@ -4147,7 +4141,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="288" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>301</v>
       </c>
@@ -4155,7 +4149,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="289" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>302</v>
       </c>
@@ -4163,7 +4157,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="290" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>303</v>
       </c>
@@ -4171,7 +4165,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>304</v>
       </c>
@@ -4179,7 +4173,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="292" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>305</v>
       </c>
@@ -4187,7 +4181,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="293" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>306</v>
       </c>
@@ -4195,7 +4189,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>307</v>
       </c>
@@ -4203,7 +4197,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>308</v>
       </c>
@@ -4211,7 +4205,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>309</v>
       </c>
@@ -4219,7 +4213,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>310</v>
       </c>
@@ -4227,7 +4221,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="298" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>311</v>
       </c>
@@ -4235,7 +4229,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="299" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>312</v>
       </c>
@@ -4243,7 +4237,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="300" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>313</v>
       </c>
@@ -4251,7 +4245,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="301" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>315</v>
       </c>
@@ -4259,7 +4253,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="302" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>316</v>
       </c>
@@ -4267,7 +4261,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="303" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>317</v>
       </c>
@@ -4275,7 +4269,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="304" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>318</v>
       </c>
@@ -4283,7 +4277,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="305" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>319</v>
       </c>
@@ -4291,7 +4285,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="306" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>320</v>
       </c>
@@ -4299,7 +4293,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="307" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>321</v>
       </c>
@@ -4307,7 +4301,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="308" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>322</v>
       </c>
@@ -4315,7 +4309,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="309" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>323</v>
       </c>
@@ -4323,7 +4317,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="310" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>324</v>
       </c>
@@ -4331,7 +4325,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="311" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>325</v>
       </c>
@@ -4339,7 +4333,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="312" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>326</v>
       </c>
@@ -4347,7 +4341,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="313" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>327</v>
       </c>
@@ -4355,7 +4349,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="314" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>328</v>
       </c>
@@ -4363,7 +4357,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="315" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>329</v>
       </c>
@@ -4371,7 +4365,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="316" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>330</v>
       </c>
@@ -4379,7 +4373,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="317" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>331</v>
       </c>
@@ -4387,543 +4381,543 @@
         <v>314</v>
       </c>
     </row>
-    <row r="318" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B318" t="s">
+      <c r="B318" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="319" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A319" s="1" t="s">
-        <v>332</v>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>333</v>
       </c>
       <c r="B319" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B320" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="321" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B321" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="322" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B322" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="323" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B323" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="324" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B324" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="325" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B325" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="326" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B326" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="327" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B327" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="328" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B328" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="329" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B329" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="330" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B330" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="331" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B331" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="332" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B332" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="333" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B333" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="334" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B334" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="335" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B335" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="336" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B336" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="337" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B337" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="338" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B338" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="339" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B339" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B340" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="341" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B341" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="342" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B342" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="343" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B343" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="344" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B344" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="345" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B345" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="346" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B346" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="347" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B347" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="348" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B348" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="349" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B349" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="350" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B350" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="351" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B351" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="352" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B352" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="353" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B353" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="354" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B354" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="355" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B355" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="356" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B356" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="357" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B357" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="358" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B358" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="359" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B359" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B360" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="361" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B361" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="362" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B362" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="363" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B363" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="364" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B364" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="365" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B365" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="366" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B366" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="367" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B367" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="368" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B368" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="369" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B369" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="370" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B370" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="371" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B371" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="372" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B372" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="373" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B373" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="374" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B374" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="375" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B375" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="376" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B376" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="377" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B377" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="378" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B378" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="379" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B379" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B380" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="381" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B381" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="382" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B382" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="383" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B383" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="384" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B384" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="385" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>402</v>
       </c>
@@ -4931,610 +4925,594 @@
         <v>397</v>
       </c>
     </row>
-    <row r="386" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B386" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="387" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B387" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="388" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B388" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="389" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B389" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="390" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B390" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="391" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B391" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="392" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B392" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="393" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B393" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="394" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B394" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="395" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B395" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="396" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B396" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="397" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B397" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="398" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B398" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="399" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B399" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B400" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="401" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B401" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="402" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B402" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="403" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B403" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="404" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B404" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="405" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B405" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="406" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B406" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="407" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B407" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="408" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B408" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="409" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B409" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="410" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B410" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="411" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B411" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="412" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B412" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="413" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B413" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="414" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B414" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="415" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B415" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="416" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B416" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="417" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B417" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="418" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B418" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="419" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B419" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="420" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B420" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="421" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B421" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="422" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B422" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="423" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B423" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="424" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B424" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="425" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B425" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="426" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B426" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="427" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B427" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="428" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B428" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="429" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B429" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="430" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B430" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="431" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B431" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="432" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B432" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="433" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B433" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="434" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B434" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="435" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B435" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="436" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B436" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="437" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B437" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="438" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B438" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="439" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B439" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="440" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A440" t="s">
-        <v>458</v>
+        <v>459</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A440" s="1" t="s">
+        <v>460</v>
       </c>
       <c r="B440" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="441" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A441" s="1" t="s">
-        <v>460</v>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>461</v>
       </c>
       <c r="B441" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="442" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A442" s="1" t="s">
-        <v>460</v>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>462</v>
       </c>
       <c r="B442" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="443" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B443" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="444" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B444" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="445" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B445" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="446" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B446" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="447" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B447" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="448" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B448" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="449" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B449" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="450" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B450" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="451" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B451" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="452" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B452" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="453" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B453" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="454" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B454" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="455" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B455" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="456" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B456" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="457" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B457" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="458" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B458" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="459" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A459" t="s">
-        <v>477</v>
-      </c>
-      <c r="B459" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="460" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A460" t="s">
-        <v>478</v>
-      </c>
-      <c r="B460" t="s">
         <v>459</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:B460" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:B317 A441:B458 A318:B440" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>